--- a/biology/Médecine/Selle_turcique/Selle_turcique.xlsx
+++ b/biology/Médecine/Selle_turcique/Selle_turcique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La selle turcique, est un ensemble de reliefs osseux de la fosse crânienne moyenne situé sur la face supérieure du corps du sphénoïde.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La selle turcique est située dans l'os sphénoïde derrière le sillon préchiasmatique et le tubercule de la selle.
 La partie la plus inférieure de la selle turcique forme la fosse hypophysaire (ou fosse pituitaire) et contient l'hypophyse.
